--- a/mAuditoriaPV/formatos/CAJAS COLORES DO.xlsx
+++ b/mAuditoriaPV/formatos/CAJAS COLORES DO.xlsx
@@ -11,6 +11,10 @@
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -345,15 +349,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -381,6 +385,81 @@
         <v>7501035905047</v>
       </c>
     </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1">
+        <v>7501003335128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1">
+        <v>7509546067520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1">
+        <v>7501003340139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1">
+        <v>7501006586725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1">
+        <v>7501045401416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1">
+        <v>7501017042043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1">
+        <v>7501035903029</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1">
+        <v>7509546016313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1">
+        <v>7501035904071</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1">
+        <v>7509546067513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1">
+        <v>650240033186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1">
+        <v>650240033186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1">
+        <v>650240033117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1">
+        <v>650240033193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1">
+        <v>650240033209</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mAuditoriaPV/formatos/CAJAS COLORES DO.xlsx
+++ b/mAuditoriaPV/formatos/CAJAS COLORES DO.xlsx
@@ -2,27 +2,36 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="510" yWindow="555" windowWidth="10215" windowHeight="5835"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Importador" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>ClaveArticulo</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -33,7 +42,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,19 +50,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -62,8 +134,19 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B11" totalsRowShown="0">
+  <autoFilter ref="A1:B11"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="ClaveArticulo" dataDxfId="0"/>
+    <tableColumn id="2" name="Cantidad"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -137,7 +220,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -172,7 +254,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -349,118 +430,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A20"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>7501071303784</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1">
-        <v>7503016372398</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1">
-        <v>619585006316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1">
-        <v>7509546075440</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1">
-        <v>7501035905047</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1">
-        <v>7501003335128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1">
-        <v>7509546067520</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>7501023318057</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>7501045403915</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>7501023310037</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>7501023311034</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>7501045401423</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>7501045401201</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7501003340139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1">
-        <v>7501006586725</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1">
-        <v>7501045401416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1">
-        <v>7501017042043</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1">
-        <v>7501035903029</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1">
-        <v>7509546016313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1">
-        <v>7501035904071</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1">
-        <v>7509546067513</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1">
-        <v>650240033186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1">
-        <v>650240033186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1">
-        <v>650240033117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1">
-        <v>650240033193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1">
-        <v>650240033209</v>
-      </c>
+        <v>7501023348290</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>